--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_9a.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_9a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08718D39-21FC-D14E-88A4-B34E89D4575D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F09C5A-6C4A-D74F-992A-E0C77A2B36D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="620" windowWidth="25040" windowHeight="14300" xr2:uid="{EA279CE4-528C-9A4D-836E-2A264EADB96F}"/>
+    <workbookView xWindow="5920" yWindow="4120" windowWidth="25040" windowHeight="14300" xr2:uid="{EA279CE4-528C-9A4D-836E-2A264EADB96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized_Terminology_Listing" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
   <si>
     <t>Action Taken with Study Treatment</t>
   </si>
@@ -116,21 +116,9 @@
     <t>RANK</t>
   </si>
   <si>
-    <t>CRFGL_USE</t>
-  </si>
-  <si>
-    <t>SDTM_USE</t>
-  </si>
-  <si>
-    <t>ADAM_USE</t>
-  </si>
-  <si>
     <t>ED_USE</t>
   </si>
   <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
     <t>INACTIVE_F</t>
   </si>
   <si>
@@ -246,6 +234,15 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>DC_STAGE</t>
+  </si>
+  <si>
+    <t>SDTM_STAGE</t>
+  </si>
+  <si>
+    <t>ADAM_STAGE</t>
   </si>
 </sst>
 </file>
@@ -606,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5786EF0E-D100-3E4E-93AE-8BA5CF0441E5}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +616,7 @@
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -663,29 +660,22 @@
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -737,8 +727,11 @@
       <c r="Q2" t="s">
         <v>12</v>
       </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -755,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -767,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -790,8 +783,11 @@
       <c r="Q3" t="s">
         <v>12</v>
       </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -808,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -820,19 +816,19 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -843,8 +839,11 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -861,10 +860,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -873,19 +872,19 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -896,8 +895,11 @@
       <c r="Q5" t="s">
         <v>12</v>
       </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -914,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -926,19 +928,19 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
@@ -949,8 +951,11 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -967,19 +972,19 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -988,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
@@ -1002,8 +1007,11 @@
       <c r="Q7" t="s">
         <v>12</v>
       </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1020,31 +1028,31 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -1055,15 +1063,12 @@
       <c r="Q8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1080,31 +1085,31 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
         <v>12</v>
@@ -1114,6 +1119,9 @@
       </c>
       <c r="Q9" t="s">
         <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
